--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="873">
   <si>
     <t>anchor score</t>
   </si>
@@ -256,535 +256,535 @@
     <t>well</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>fraudulent</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>midst</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>upset</t>
-  </si>
-  <si>
-    <t>fraudulent</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fox</t>
+    <t>love</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>infection</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>midst</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>australia</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>services</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>response</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>per</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
   </si>
   <si>
     <t>heroes</t>
@@ -2998,10 +2998,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K4">
         <v>0.889763779527559</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>0.8785714285714286</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K7">
         <v>0.8620689655172413</v>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8">
         <v>0.85</v>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K9">
         <v>0.8205128205128205</v>
@@ -3480,7 +3480,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K11">
         <v>0.776595744680851</v>
@@ -3530,28 +3530,28 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12">
-        <v>0.7665198237885462</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L12">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3580,28 +3580,28 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="K13">
-        <v>0.7528089887640449</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="M13">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="N13">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K14">
         <v>0.7121212121212122</v>
@@ -3680,7 +3680,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K15">
         <v>0.7117437722419929</v>
@@ -3730,28 +3730,28 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>96</v>
+        <v>255</v>
       </c>
       <c r="K16">
-        <v>0.6932515337423313</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L16">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3783,13 +3783,13 @@
         <v>256</v>
       </c>
       <c r="K17">
-        <v>0.6739130434782609</v>
+        <v>0.6647058823529411</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3830,7 +3830,7 @@
         <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K18">
         <v>0.6491228070175439</v>
@@ -3880,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K19">
         <v>0.6162790697674418</v>
@@ -4080,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K23">
         <v>0.5238095238095238</v>
@@ -4130,7 +4130,7 @@
         <v>57</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K24">
         <v>0.5189873417721519</v>
@@ -4180,7 +4180,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K25">
         <v>0.5052631578947369</v>
@@ -4230,7 +4230,7 @@
         <v>4</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K26">
         <v>0.4909090909090909</v>
@@ -4280,7 +4280,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K27">
         <v>0.4656862745098039</v>
@@ -4380,7 +4380,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K29">
         <v>0.4567307692307692</v>
@@ -4480,7 +4480,7 @@
         <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K31">
         <v>0.4468085106382979</v>
@@ -4530,7 +4530,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K32">
         <v>0.4375</v>
@@ -4630,7 +4630,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K34">
         <v>0.4203821656050956</v>
@@ -4680,7 +4680,7 @@
         <v>3</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K35">
         <v>0.4126984126984127</v>
@@ -4730,7 +4730,7 @@
         <v>5</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K36">
         <v>0.4090909090909091</v>
@@ -4830,7 +4830,7 @@
         <v>3</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K38">
         <v>0.4</v>
@@ -5130,7 +5130,7 @@
         <v>12</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K44">
         <v>0.3719512195121951</v>
@@ -5230,7 +5230,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K46">
         <v>0.3695652173913043</v>
@@ -5280,7 +5280,7 @@
         <v>3</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K47">
         <v>0.3666666666666666</v>
@@ -5480,7 +5480,7 @@
         <v>17</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K51">
         <v>0.345679012345679</v>
@@ -5930,7 +5930,7 @@
         <v>5</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K60">
         <v>0.3260869565217391</v>
@@ -5980,7 +5980,7 @@
         <v>5</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K61">
         <v>0.3251833740831296</v>
@@ -6030,7 +6030,7 @@
         <v>5</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K62">
         <v>0.323943661971831</v>
@@ -6080,7 +6080,7 @@
         <v>18</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K63">
         <v>0.3180327868852459</v>
@@ -6130,7 +6130,7 @@
         <v>14</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K64">
         <v>0.3177570093457944</v>
@@ -6380,7 +6380,7 @@
         <v>39</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K69">
         <v>0.3076923076923077</v>
@@ -6530,7 +6530,7 @@
         <v>30</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K72">
         <v>0.2962962962962963</v>
@@ -6580,7 +6580,7 @@
         <v>13</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K73">
         <v>0.2952488687782805</v>
@@ -6659,25 +6659,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1846153846153846</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C75">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D75">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="E75">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>288</v>
@@ -6709,13 +6709,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1818181818181818</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C76">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D76">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -6727,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>289</v>
@@ -6765,16 +6765,16 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>19</v>
@@ -6809,25 +6809,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1739130434782609</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>291</v>
@@ -6880,7 +6880,7 @@
         <v>5</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K79">
         <v>0.2857142857142857</v>
@@ -6909,13 +6909,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -6927,10 +6927,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K80">
         <v>0.2857142857142857</v>
@@ -6962,10 +6962,10 @@
         <v>0.1538461538461539</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>292</v>
@@ -7009,28 +7009,28 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1538461538461539</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>214</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K82">
         <v>0.2857142857142857</v>
@@ -7059,25 +7059,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1473684210526316</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C83">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D83">
-        <v>214</v>
+        <v>3</v>
       </c>
       <c r="E83">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>293</v>
@@ -7112,22 +7112,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>294</v>
@@ -7159,28 +7159,28 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1428571428571428</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="E85">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K85">
         <v>0.28125</v>
@@ -7209,13 +7209,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.131578947368421</v>
+        <v>0.125</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -7227,10 +7227,10 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K86">
         <v>0.2741935483870968</v>
@@ -7262,10 +7262,10 @@
         <v>0.125</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -7277,10 +7277,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K87">
         <v>0.2723004694835681</v>
@@ -7315,22 +7315,22 @@
         <v>4</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
         <v>28</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K88">
         <v>0.2708333333333333</v>
@@ -7362,22 +7362,22 @@
         <v>0.125</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="E89">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F89">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>295</v>
@@ -7409,28 +7409,28 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.125</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D90">
         <v>3</v>
       </c>
       <c r="E90">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K90">
         <v>0.2647058823529412</v>
@@ -7459,25 +7459,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1228070175438596</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C91">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>296</v>
@@ -7509,13 +7509,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>297</v>
@@ -7565,16 +7565,16 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
         <v>8</v>
@@ -7615,16 +7615,16 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
         <v>8</v>
@@ -7659,28 +7659,28 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="E95">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="F95">
-        <v>0.5</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K95">
         <v>0.2592592592592592</v>
@@ -7709,28 +7709,28 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D96">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E96">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K96">
         <v>0.2586786114221725</v>
@@ -7759,25 +7759,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="E97">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>300</v>
@@ -7812,10 +7812,10 @@
         <v>0.1</v>
       </c>
       <c r="C98">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>301</v>
@@ -7862,25 +7862,25 @@
         <v>0.1</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K99">
         <v>0.2566371681415929</v>
@@ -7962,22 +7962,22 @@
         <v>0.1</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>303</v>
@@ -8009,7 +8009,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8027,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K102">
         <v>0.25</v>
@@ -8059,7 +8059,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>304</v>
@@ -8112,22 +8112,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>305</v>
@@ -8159,25 +8159,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>306</v>
@@ -8209,25 +8209,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>307</v>
@@ -8259,25 +8259,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E107">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="F107">
-        <v>0.05000000000000004</v>
+        <v>0.18</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>308</v>
@@ -8309,7 +8309,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>309</v>
@@ -8359,25 +8359,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.08</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D109">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="E109">
-        <v>0.82</v>
+        <v>0.98</v>
       </c>
       <c r="F109">
-        <v>0.18</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>310</v>
@@ -8409,25 +8409,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.07692307692307693</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>311</v>
@@ -8459,28 +8459,28 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C111">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>299</v>
+        <v>3</v>
       </c>
       <c r="E111">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F111">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K111">
         <v>0.2495575221238938</v>
@@ -8509,28 +8509,28 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.07462686567164178</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E112">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F112">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K112">
         <v>0.2478632478632479</v>
@@ -8559,28 +8559,28 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F113">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K113">
         <v>0.2467532467532468</v>
@@ -8615,13 +8615,13 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="E114">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F114">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
@@ -8662,25 +8662,25 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E115">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F115">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K115">
         <v>0.2421875</v>
@@ -8715,16 +8715,16 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>14</v>
@@ -8759,25 +8759,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117">
+        <v>0.5</v>
+      </c>
+      <c r="F117">
+        <v>0.5</v>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117">
         <v>29</v>
-      </c>
-      <c r="E117">
-        <v>0.93</v>
-      </c>
-      <c r="F117">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G117" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117">
-        <v>28</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>314</v>
@@ -8809,28 +8809,28 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.06666666666666667</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K118">
         <v>0.2380952380952381</v>
@@ -8859,25 +8859,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>315</v>
@@ -8909,25 +8909,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.0641025641025641</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C120">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E120">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="F120">
-        <v>0.13</v>
+        <v>0.33</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>316</v>
@@ -8959,28 +8959,28 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K121">
         <v>0.231974921630094</v>
@@ -9009,25 +9009,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.05882352941176471</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="E122">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F122">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>317</v>
@@ -9059,25 +9059,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>318</v>
@@ -9109,25 +9109,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.05833333333333333</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C124">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>319</v>
@@ -9159,25 +9159,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>320</v>
@@ -9209,25 +9209,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>321</v>
@@ -9259,25 +9259,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>322</v>
@@ -9309,25 +9309,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.05128205128205128</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E128">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F128">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>323</v>
@@ -9359,25 +9359,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>324</v>
@@ -9415,13 +9415,13 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E130">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F130">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
@@ -9465,13 +9465,13 @@
         <v>1</v>
       </c>
       <c r="D131">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E131">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F131">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
@@ -9509,25 +9509,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.04761904761904762</v>
+        <v>0.04697986577181208</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D132">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E132">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>327</v>
@@ -9559,28 +9559,28 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E133">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F133">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K133">
         <v>0.2222222222222222</v>
@@ -9609,25 +9609,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.04697986577181208</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C134">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>328</v>
@@ -9659,25 +9659,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.04545454545454546</v>
+        <v>0.04385964912280702</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D135">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="E135">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F135">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>329</v>
@@ -9709,28 +9709,28 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F136">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K136">
         <v>0.2195121951219512</v>
@@ -9759,25 +9759,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.04385964912280702</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C137">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="E137">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F137">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>218</v>
+        <v>22</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>330</v>
@@ -9809,25 +9809,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.04347826086956522</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E138">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F138">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>331</v>
@@ -9859,25 +9859,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E139">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F139">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>332</v>
@@ -9909,28 +9909,28 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.0425531914893617</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E140">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="F140">
-        <v>0.08999999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K140">
         <v>0.2154246664497234</v>
@@ -9959,25 +9959,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.04166666666666666</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="C141">
         <v>2</v>
       </c>
       <c r="D141">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E141">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F141">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>333</v>
@@ -10009,25 +10009,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>334</v>
@@ -10059,28 +10059,28 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.04081632653061224</v>
+        <v>0.04</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
       <c r="D143">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E143">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F143">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K143">
         <v>0.2115384615384615</v>
@@ -10109,25 +10109,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.04</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>335</v>
@@ -10159,25 +10159,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
+        <v>6</v>
+      </c>
+      <c r="E145">
+        <v>0.83</v>
+      </c>
+      <c r="F145">
+        <v>0.17</v>
+      </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145">
         <v>25</v>
-      </c>
-      <c r="E145">
-        <v>0.92</v>
-      </c>
-      <c r="F145">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145">
-        <v>48</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>336</v>
@@ -10209,28 +10209,28 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.0392156862745098</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E146">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F146">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K146">
         <v>0.2081170363378952</v>
@@ -10259,28 +10259,28 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.03846153846153846</v>
+        <v>0.03816793893129771</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D147">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="E147">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F147">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>25</v>
+        <v>252</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K147">
         <v>0.208</v>
@@ -10309,28 +10309,28 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K148">
         <v>0.2076923076923077</v>
@@ -10359,25 +10359,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.03816793893129771</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C149">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>337</v>
@@ -10415,16 +10415,16 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
         <v>26</v>
@@ -10465,16 +10465,16 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
         <v>26</v>
@@ -10515,13 +10515,13 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E152">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F152">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
@@ -10559,25 +10559,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>341</v>
@@ -10609,25 +10609,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>342</v>
@@ -10665,16 +10665,16 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
         <v>27</v>
@@ -10715,22 +10715,22 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
         <v>27</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K156">
         <v>0.2</v>
@@ -10759,25 +10759,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.03571428571428571</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E157">
-        <v>0.5</v>
+        <v>0.87</v>
       </c>
       <c r="F157">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>344</v>
@@ -10809,25 +10809,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E158">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F158">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>345</v>
@@ -10859,25 +10859,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.03370786516853932</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E159">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F159">
-        <v>0.13</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>346</v>
@@ -10912,22 +10912,22 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E160">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F160">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>347</v>
@@ -10959,25 +10959,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.03333333333333333</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D161">
         <v>18</v>
       </c>
       <c r="E161">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F161">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>348</v>
@@ -11009,13 +11009,13 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.03333333333333333</v>
+        <v>0.03162055335968379</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D162">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="E162">
         <v>0.9</v>
@@ -11027,7 +11027,7 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>349</v>
@@ -11059,25 +11059,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.03191489361702127</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E163">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F163">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>350</v>
@@ -11109,25 +11109,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.03162055335968379</v>
+        <v>0.03</v>
       </c>
       <c r="C164">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D164">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="E164">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F164">
-        <v>0.09999999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>351</v>
@@ -11159,25 +11159,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>75</v>
@@ -11209,25 +11209,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.03</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="C166">
         <v>3</v>
       </c>
       <c r="D166">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E166">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F166">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>76</v>
@@ -11259,7 +11259,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.02941176470588235</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>352</v>
@@ -11309,28 +11309,28 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.02830188679245283</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E168">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F168">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K168">
         <v>0.1935483870967742</v>
@@ -11359,28 +11359,28 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K169">
         <v>0.1924528301886793</v>
@@ -11409,28 +11409,28 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E170">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F170">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K170">
         <v>0.1923076923076923</v>
@@ -11459,25 +11459,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E171">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F171">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>353</v>
@@ -11509,25 +11509,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E172">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F172">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>354</v>
@@ -11559,25 +11559,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.02631578947368421</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E173">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F173">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>355</v>
@@ -11609,28 +11609,28 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K174">
         <v>0.1891891891891892</v>
@@ -11659,28 +11659,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.02597402597402598</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E175">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="F175">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K175">
         <v>0.1886792452830189</v>
@@ -11765,13 +11765,13 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E177">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F177">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
@@ -11809,25 +11809,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>358</v>
@@ -11859,25 +11859,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E179">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F179">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>359</v>
@@ -11912,22 +11912,22 @@
         <v>0.025</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E180">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="F180">
-        <v>0.18</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>360</v>
@@ -11959,25 +11959,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.025</v>
+        <v>0.02473498233215548</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="E181">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F181">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>361</v>
@@ -12009,25 +12009,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>362</v>
@@ -12059,25 +12059,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.02473498233215548</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C183">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="E183">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F183">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>363</v>
@@ -12109,25 +12109,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>364</v>
@@ -12159,25 +12159,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.02380952380952381</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>365</v>
@@ -12209,25 +12209,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.02380952380952381</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E186">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F186">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>366</v>
@@ -12259,25 +12259,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>367</v>
@@ -12309,13 +12309,13 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E188">
         <v>0.9399999999999999</v>
@@ -12327,7 +12327,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>368</v>
@@ -12359,25 +12359,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.02173913043478261</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E189">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F189">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>369</v>
@@ -12409,28 +12409,28 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E190">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F190">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K190">
         <v>0.1785714285714286</v>
@@ -12459,25 +12459,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.02150537634408602</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="E191">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F191">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>370</v>
@@ -12509,25 +12509,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E192">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F192">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>371</v>
@@ -12559,25 +12559,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.02127659574468085</v>
+        <v>0.02</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E193">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F193">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>372</v>
@@ -12609,28 +12609,28 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02083333333333333</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E194">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F194">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K194">
         <v>0.1764705882352941</v>
@@ -12659,25 +12659,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E195">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F195">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>373</v>
@@ -12709,25 +12709,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0198019801980198</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E196">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F196">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>374</v>
@@ -12759,25 +12759,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0196078431372549</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E197">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F197">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>375</v>
@@ -12815,13 +12815,13 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E198">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F198">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
@@ -12859,25 +12859,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E199">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F199">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>377</v>
@@ -12909,25 +12909,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.01851851851851852</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E200">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F200">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>378</v>
@@ -12959,25 +12959,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E201">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F201">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>379</v>
@@ -13015,13 +13015,13 @@
         <v>1</v>
       </c>
       <c r="D202">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E202">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F202">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
@@ -13059,25 +13059,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.01785714285714286</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E203">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F203">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>381</v>
@@ -13109,25 +13109,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.01785714285714286</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E204">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F204">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>382</v>
@@ -13159,25 +13159,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.01666666666666667</v>
+        <v>0.01579778830963665</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D205">
-        <v>7</v>
+        <v>271</v>
       </c>
       <c r="E205">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F205">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>59</v>
+        <v>623</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>383</v>
@@ -13209,28 +13209,28 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.01639344262295082</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E206">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F206">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K206">
         <v>0.1666666666666667</v>
@@ -13259,25 +13259,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.01579778830963665</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C207">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>271</v>
+        <v>1</v>
       </c>
       <c r="E207">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
-        <v>623</v>
+        <v>64</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>384</v>
@@ -13309,25 +13309,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.01538461538461539</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D208">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E208">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="F208">
-        <v>0.17</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>385</v>
@@ -13359,25 +13359,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.01538461538461539</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>386</v>
@@ -13409,25 +13409,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.01463414634146342</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="C210">
         <v>3</v>
       </c>
       <c r="D210">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E210">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F210">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>387</v>
@@ -13459,25 +13459,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.01428571428571429</v>
+        <v>0.01410105757931845</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D211">
-        <v>5</v>
+        <v>465</v>
       </c>
       <c r="E211">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F211">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>69</v>
+        <v>1678</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>388</v>
@@ -13509,25 +13509,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.01421800947867299</v>
+        <v>0.01390593047034765</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D212">
-        <v>100</v>
+        <v>696</v>
       </c>
       <c r="E212">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F212">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>208</v>
+        <v>2411</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>389</v>
@@ -13559,25 +13559,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.01410105757931845</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C213">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="E213">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F213">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>1678</v>
+        <v>73</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>390</v>
@@ -13609,25 +13609,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.01390593047034765</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C214">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>696</v>
+        <v>83</v>
       </c>
       <c r="E214">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F214">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>2411</v>
+        <v>76</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>391</v>
@@ -13659,25 +13659,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.01351351351351351</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="E215">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F215">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>392</v>
@@ -13709,25 +13709,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.01298701298701299</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="E216">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="F216">
-        <v>0.01000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>393</v>
@@ -13759,25 +13759,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.01273885350318471</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D217">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="E217">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F217">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>155</v>
+        <v>729</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>394</v>
@@ -13809,25 +13809,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.01265822784810127</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E218">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>395</v>
@@ -13859,25 +13859,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.01219512195121951</v>
+        <v>0.01194029850746269</v>
       </c>
       <c r="C219">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D219">
-        <v>138</v>
+        <v>239</v>
       </c>
       <c r="E219">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F219">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>729</v>
+        <v>662</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>396</v>
@@ -13909,13 +13909,13 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.01204819277108434</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -13927,7 +13927,7 @@
         <v>0</v>
       </c>
       <c r="H220">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>397</v>
@@ -13959,25 +13959,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01194029850746269</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C221">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="E221">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F221">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>662</v>
+        <v>90</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>398</v>
@@ -14009,25 +14009,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.01111111111111111</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>399</v>
@@ -14059,25 +14059,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.01098901098901099</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E223">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F223">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>400</v>
@@ -14109,25 +14109,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.01030927835051546</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E224">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F224">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>401</v>
@@ -14159,25 +14159,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.009900990099009901</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E225">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F225">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>402</v>
@@ -14209,25 +14209,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.009615384615384616</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E226">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F226">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>403</v>
@@ -14259,25 +14259,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.009615384615384616</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E227">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F227">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>404</v>
@@ -14309,25 +14309,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.009523809523809525</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E228">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F228">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>405</v>
@@ -14359,25 +14359,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.009259259259259259</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E229">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F229">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>406</v>
@@ -14409,25 +14409,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.009174311926605505</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E230">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F230">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>407</v>
@@ -14459,13 +14459,13 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.008771929824561403</v>
+        <v>0.008460236886632826</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D231">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E231">
         <v>0.92</v>
@@ -14477,10 +14477,10 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>113</v>
+        <v>586</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K231">
         <v>0.15625</v>
@@ -14509,25 +14509,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.008695652173913044</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E232">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F232">
-        <v>0.02000000000000002</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>408</v>
@@ -14559,25 +14559,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.008460236886632826</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C233">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="E233">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F233">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>586</v>
+        <v>123</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>409</v>
@@ -14609,28 +14609,28 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.008403361344537815</v>
+        <v>0.008</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E234">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F234">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K234">
         <v>0.1549295774647887</v>
@@ -14659,25 +14659,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.008064516129032258</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E235">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F235">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>410</v>
@@ -14709,25 +14709,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.008</v>
+        <v>0.006322444678609062</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D236">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E236">
-        <v>0.92</v>
+        <v>0.76</v>
       </c>
       <c r="F236">
-        <v>0.07999999999999996</v>
+        <v>0.24</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>124</v>
+        <v>943</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>411</v>
@@ -14759,25 +14759,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.006535947712418301</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E237">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F237">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>412</v>
@@ -14809,25 +14809,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.006322444678609062</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="C238">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D238">
         <v>25</v>
       </c>
       <c r="E238">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
       <c r="F238">
-        <v>0.24</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>943</v>
+        <v>200</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>413</v>
@@ -14859,28 +14859,28 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.005952380952380952</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="E239">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F239">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>167</v>
+        <v>424</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K239">
         <v>0.1509433962264151</v>
@@ -14909,25 +14909,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.004975124378109453</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E240">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F240">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>414</v>
@@ -14959,28 +14959,28 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.004694835680751174</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>424</v>
+        <v>251</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K241">
         <v>0.1503496503496503</v>
@@ -15009,28 +15009,28 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.004651162790697674</v>
+        <v>0.003802281368821293</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D242">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E242">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F242">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>214</v>
+        <v>524</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K242">
         <v>0.1481481481481481</v>
@@ -15059,25 +15059,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.003968253968253968</v>
+        <v>0.003802281368821293</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>415</v>
@@ -15109,25 +15109,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.003802281368821293</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="C244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="E244">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="F244">
-        <v>0.09999999999999998</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>524</v>
+        <v>291</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>416</v>
@@ -15159,25 +15159,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.003802281368821293</v>
+        <v>0.002680965147453083</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E245">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
-        <v>262</v>
+        <v>372</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>417</v>
@@ -15209,28 +15209,28 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.003424657534246575</v>
+        <v>0.002678571428571429</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D246">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="E246">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F246">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>291</v>
+        <v>1117</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K246">
         <v>0.1451612903225807</v>
@@ -15259,25 +15259,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.002680965147453083</v>
+        <v>0.001985440105890139</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247">
-        <v>372</v>
+        <v>3016</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>418</v>
@@ -15305,30 +15305,6 @@
       </c>
     </row>
     <row r="248" spans="1:17">
-      <c r="A248" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B248">
-        <v>0.002678571428571429</v>
-      </c>
-      <c r="C248">
-        <v>3</v>
-      </c>
-      <c r="D248">
-        <v>44</v>
-      </c>
-      <c r="E248">
-        <v>0.93</v>
-      </c>
-      <c r="F248">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248">
-        <v>1117</v>
-      </c>
       <c r="J248" s="1" t="s">
         <v>419</v>
       </c>
@@ -15355,30 +15331,6 @@
       </c>
     </row>
     <row r="249" spans="1:17">
-      <c r="A249" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B249">
-        <v>0.001985440105890139</v>
-      </c>
-      <c r="C249">
-        <v>6</v>
-      </c>
-      <c r="D249">
-        <v>185</v>
-      </c>
-      <c r="E249">
-        <v>0.97</v>
-      </c>
-      <c r="F249">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249">
-        <v>3016</v>
-      </c>
       <c r="J249" s="1" t="s">
         <v>420</v>
       </c>
@@ -15952,7 +15904,7 @@
     </row>
     <row r="271" spans="10:17">
       <c r="J271" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K271">
         <v>0.1415094339622641</v>
@@ -16082,7 +16034,7 @@
     </row>
     <row r="276" spans="10:17">
       <c r="J276" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K276">
         <v>0.1367521367521368</v>
@@ -16212,7 +16164,7 @@
     </row>
     <row r="281" spans="10:17">
       <c r="J281" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K281">
         <v>0.1333333333333333</v>
@@ -16238,7 +16190,7 @@
     </row>
     <row r="282" spans="10:17">
       <c r="J282" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K282">
         <v>0.1333333333333333</v>
@@ -17304,7 +17256,7 @@
     </row>
     <row r="323" spans="10:17">
       <c r="J323" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K323">
         <v>0.1219512195121951</v>
@@ -17330,7 +17282,7 @@
     </row>
     <row r="324" spans="10:17">
       <c r="J324" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K324">
         <v>0.1212121212121212</v>
@@ -17590,7 +17542,7 @@
     </row>
     <row r="334" spans="10:17">
       <c r="J334" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K334">
         <v>0.1129032258064516</v>
@@ -17902,7 +17854,7 @@
     </row>
     <row r="346" spans="10:17">
       <c r="J346" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K346">
         <v>0.1111111111111111</v>
@@ -17928,7 +17880,7 @@
     </row>
     <row r="347" spans="10:17">
       <c r="J347" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K347">
         <v>0.1111111111111111</v>
@@ -18084,7 +18036,7 @@
     </row>
     <row r="353" spans="10:17">
       <c r="J353" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K353">
         <v>0.1111111111111111</v>
@@ -18292,7 +18244,7 @@
     </row>
     <row r="361" spans="10:17">
       <c r="J361" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K361">
         <v>0.1090909090909091</v>
@@ -18318,7 +18270,7 @@
     </row>
     <row r="362" spans="10:17">
       <c r="J362" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K362">
         <v>0.1090909090909091</v>
@@ -18370,7 +18322,7 @@
     </row>
     <row r="364" spans="10:17">
       <c r="J364" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K364">
         <v>0.108433734939759</v>
@@ -18422,7 +18374,7 @@
     </row>
     <row r="366" spans="10:17">
       <c r="J366" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K366">
         <v>0.1071428571428571</v>
@@ -18578,7 +18530,7 @@
     </row>
     <row r="372" spans="10:17">
       <c r="J372" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K372">
         <v>0.103448275862069</v>
@@ -18656,7 +18608,7 @@
     </row>
     <row r="375" spans="10:17">
       <c r="J375" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K375">
         <v>0.1016949152542373</v>
@@ -19488,7 +19440,7 @@
     </row>
     <row r="407" spans="10:17">
       <c r="J407" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K407">
         <v>0.09230769230769231</v>
@@ -19540,7 +19492,7 @@
     </row>
     <row r="409" spans="10:17">
       <c r="J409" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K409">
         <v>0.09147286821705426</v>
@@ -20164,7 +20116,7 @@
     </row>
     <row r="433" spans="10:17">
       <c r="J433" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K433">
         <v>0.08870967741935484</v>
@@ -20268,7 +20220,7 @@
     </row>
     <row r="437" spans="10:17">
       <c r="J437" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K437">
         <v>0.08823529411764706</v>
@@ -20970,7 +20922,7 @@
     </row>
     <row r="464" spans="10:17">
       <c r="J464" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K464">
         <v>0.08235294117647059</v>
@@ -21048,7 +21000,7 @@
     </row>
     <row r="467" spans="10:17">
       <c r="J467" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K467">
         <v>0.08035714285714286</v>
@@ -21074,7 +21026,7 @@
     </row>
     <row r="468" spans="10:17">
       <c r="J468" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K468">
         <v>0.08</v>
@@ -21230,7 +21182,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K474">
         <v>0.08</v>
@@ -21724,7 +21676,7 @@
     </row>
     <row r="493" spans="10:17">
       <c r="J493" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K493">
         <v>0.075</v>
@@ -21828,7 +21780,7 @@
     </row>
     <row r="497" spans="10:17">
       <c r="J497" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K497">
         <v>0.07246376811594203</v>
@@ -21906,7 +21858,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K500">
         <v>0.07142857142857142</v>
@@ -22322,7 +22274,7 @@
     </row>
     <row r="516" spans="10:17">
       <c r="J516" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K516">
         <v>0.07086614173228346</v>
@@ -22400,7 +22352,7 @@
     </row>
     <row r="519" spans="10:17">
       <c r="J519" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K519">
         <v>0.06818181818181818</v>
@@ -22660,7 +22612,7 @@
     </row>
     <row r="529" spans="10:17">
       <c r="J529" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K529">
         <v>0.06666666666666667</v>
@@ -22790,7 +22742,7 @@
     </row>
     <row r="534" spans="10:17">
       <c r="J534" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K534">
         <v>0.06521739130434782</v>
@@ -22946,7 +22898,7 @@
     </row>
     <row r="540" spans="10:17">
       <c r="J540" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K540">
         <v>0.06451612903225806</v>
@@ -22998,7 +22950,7 @@
     </row>
     <row r="542" spans="10:17">
       <c r="J542" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K542">
         <v>0.06428571428571428</v>
@@ -23154,7 +23106,7 @@
     </row>
     <row r="548" spans="10:17">
       <c r="J548" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K548">
         <v>0.0625</v>
@@ -23804,7 +23756,7 @@
     </row>
     <row r="573" spans="10:17">
       <c r="J573" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K573">
         <v>0.05602503912363067</v>
@@ -24090,7 +24042,7 @@
     </row>
     <row r="584" spans="10:17">
       <c r="J584" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K584">
         <v>0.0547945205479452</v>
@@ -24142,7 +24094,7 @@
     </row>
     <row r="586" spans="10:17">
       <c r="J586" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K586">
         <v>0.05309734513274336</v>
@@ -24168,7 +24120,7 @@
     </row>
     <row r="587" spans="10:17">
       <c r="J587" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K587">
         <v>0.05263157894736842</v>
@@ -24480,7 +24432,7 @@
     </row>
     <row r="599" spans="10:17">
       <c r="J599" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K599">
         <v>0.05172413793103448</v>
@@ -25312,7 +25264,7 @@
     </row>
     <row r="631" spans="10:17">
       <c r="J631" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K631">
         <v>0.04347826086956522</v>
@@ -25338,7 +25290,7 @@
     </row>
     <row r="632" spans="10:17">
       <c r="J632" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K632">
         <v>0.04347826086956522</v>
@@ -26066,7 +26018,7 @@
     </row>
     <row r="660" spans="10:17">
       <c r="J660" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K660">
         <v>0.03571428571428571</v>
@@ -26092,7 +26044,7 @@
     </row>
     <row r="661" spans="10:17">
       <c r="J661" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K661">
         <v>0.03571428571428571</v>
@@ -26118,7 +26070,7 @@
     </row>
     <row r="662" spans="10:17">
       <c r="J662" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K662">
         <v>0.03540587219343696</v>
@@ -26170,7 +26122,7 @@
     </row>
     <row r="664" spans="10:17">
       <c r="J664" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K664">
         <v>0.03499079189686925</v>
@@ -26638,7 +26590,7 @@
     </row>
     <row r="682" spans="10:17">
       <c r="J682" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K682">
         <v>0.0303030303030303</v>
@@ -26794,7 +26746,7 @@
     </row>
     <row r="688" spans="10:17">
       <c r="J688" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K688">
         <v>0.02803738317757009</v>
@@ -27002,7 +26954,7 @@
     </row>
     <row r="696" spans="10:17">
       <c r="J696" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K696">
         <v>0.02666666666666667</v>
@@ -27262,7 +27214,7 @@
     </row>
     <row r="706" spans="10:17">
       <c r="J706" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K706">
         <v>0.02564102564102564</v>
@@ -27392,7 +27344,7 @@
     </row>
     <row r="711" spans="10:17">
       <c r="J711" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K711">
         <v>0.025</v>
@@ -27756,7 +27708,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K725">
         <v>0.02083333333333333</v>
@@ -27886,7 +27838,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K730">
         <v>0.01975051975051975</v>
@@ -27938,7 +27890,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K732">
         <v>0.01818181818181818</v>
@@ -27964,7 +27916,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K733">
         <v>0.01764705882352941</v>
@@ -28120,7 +28072,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K739">
         <v>0.016</v>
